--- a/Tidslinje med milepæle.xlsx
+++ b/Tidslinje med milepæle.xlsx
@@ -822,7 +822,7 @@
                   <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-20</c:v>
@@ -834,7 +834,7 @@
                   <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-5</c:v>
@@ -861,8 +861,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1761918080"/>
-        <c:axId val="1761914816"/>
+        <c:axId val="1774627712"/>
+        <c:axId val="1774625536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1009,11 +1009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1761916448"/>
-        <c:axId val="1761908832"/>
+        <c:axId val="1774626624"/>
+        <c:axId val="1774617920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1761916448"/>
+        <c:axId val="1774626624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761908832"/>
+        <c:crossAx val="1774617920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1064,7 +1064,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1761908832"/>
+        <c:axId val="1774617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,12 +1074,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1761916448"/>
+        <c:crossAx val="1774626624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1761914816"/>
+        <c:axId val="1774625536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,12 +1089,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1761918080"/>
+        <c:crossAx val="1774627712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1761918080"/>
+        <c:axId val="1774627712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1761914816"/>
+        <c:crossAx val="1774625536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1634,8 +1634,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:R6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <f>1</f>
@@ -1912,7 +1912,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E27" s="5">
         <f>1</f>
